--- a/remember/LOGGER.xlsx
+++ b/remember/LOGGER.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="15480" windowHeight="9165"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15480" windowHeight="9165" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="2016" sheetId="3" r:id="rId1"/>
-    <sheet name="copy" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="test" sheetId="4" r:id="rId1"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
+    <sheet name="2017" sheetId="5" r:id="rId3"/>
+    <sheet name="copy" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'2016'!$A$1:$F$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">copy!$A$1:$F$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2016'!$A$1:$F$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2017'!$A$1:$F$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">copy!$A$1:$F$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">test!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -206,6 +209,10 @@
     <rPh sb="1" eb="2">
       <t>ネン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[2017年] カレンダー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -266,7 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -286,12 +293,108 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="60">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -393,7 +496,73 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:M34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A3:M34" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A3:M34"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="日" dataDxfId="57"/>
+    <tableColumn id="2" name="1 月" dataDxfId="56"/>
+    <tableColumn id="3" name="2 月" dataDxfId="55"/>
+    <tableColumn id="4" name="3 月" dataDxfId="54"/>
+    <tableColumn id="5" name="4 月" dataDxfId="53"/>
+    <tableColumn id="6" name="5 月" dataDxfId="52"/>
+    <tableColumn id="7" name="6 月" dataDxfId="51"/>
+    <tableColumn id="8" name="7 月" dataDxfId="50"/>
+    <tableColumn id="9" name="8 月" dataDxfId="49"/>
+    <tableColumn id="10" name="9 月" dataDxfId="48"/>
+    <tableColumn id="11" name="10 月" dataDxfId="47"/>
+    <tableColumn id="12" name="11 月" dataDxfId="46"/>
+    <tableColumn id="13" name="12 月" dataDxfId="45"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:M34" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A3:M34"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="日" dataDxfId="42"/>
+    <tableColumn id="2" name="1 月" dataDxfId="41"/>
+    <tableColumn id="3" name="2 月" dataDxfId="40"/>
+    <tableColumn id="4" name="3 月" dataDxfId="39"/>
+    <tableColumn id="5" name="4 月" dataDxfId="38"/>
+    <tableColumn id="6" name="5 月" dataDxfId="37"/>
+    <tableColumn id="7" name="6 月" dataDxfId="36"/>
+    <tableColumn id="8" name="7 月" dataDxfId="35"/>
+    <tableColumn id="9" name="8 月" dataDxfId="34"/>
+    <tableColumn id="10" name="9 月" dataDxfId="33"/>
+    <tableColumn id="11" name="10 月" dataDxfId="32"/>
+    <tableColumn id="12" name="11 月" dataDxfId="31"/>
+    <tableColumn id="13" name="12 月" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A3:M34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A3:M34"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="日" dataDxfId="12"/>
+    <tableColumn id="2" name="1 月" dataDxfId="11"/>
+    <tableColumn id="3" name="2 月" dataDxfId="10"/>
+    <tableColumn id="4" name="3 月" dataDxfId="9"/>
+    <tableColumn id="5" name="4 月" dataDxfId="8"/>
+    <tableColumn id="6" name="5 月" dataDxfId="7"/>
+    <tableColumn id="7" name="6 月" dataDxfId="6"/>
+    <tableColumn id="8" name="7 月" dataDxfId="5"/>
+    <tableColumn id="9" name="8 月" dataDxfId="4"/>
+    <tableColumn id="10" name="9 月" dataDxfId="3"/>
+    <tableColumn id="11" name="10 月" dataDxfId="2"/>
+    <tableColumn id="12" name="11 月" dataDxfId="1"/>
+    <tableColumn id="13" name="12 月" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A3:M34"/>
   <tableColumns count="13">
     <tableColumn id="1" name="日" dataDxfId="27"/>
@@ -409,28 +578,6 @@
     <tableColumn id="11" name="10 月" dataDxfId="17"/>
     <tableColumn id="12" name="11 月" dataDxfId="16"/>
     <tableColumn id="13" name="12 月" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A3:M34"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="日" dataDxfId="12"/>
-    <tableColumn id="2" name="1 月" dataDxfId="11"/>
-    <tableColumn id="3" name="2 月" dataDxfId="10"/>
-    <tableColumn id="4" name="3 月" dataDxfId="9"/>
-    <tableColumn id="5" name="4 月" dataDxfId="8"/>
-    <tableColumn id="6" name="5 月" dataDxfId="7"/>
-    <tableColumn id="7" name="6 月" dataDxfId="6"/>
-    <tableColumn id="8" name="7 月" dataDxfId="5"/>
-    <tableColumn id="9" name="8 月" dataDxfId="4"/>
-    <tableColumn id="10" name="9 月" dataDxfId="3"/>
-    <tableColumn id="11" name="10 月" dataDxfId="2"/>
-    <tableColumn id="12" name="11 月" dataDxfId="1"/>
-    <tableColumn id="13" name="12 月" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -770,9 +917,9 @@
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M34" sqref="M34"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -783,21 +930,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="M34" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="58" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C32" sqref="C32:C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
+    <col min="2" max="13" width="19.125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
       <c r="N1" s="5"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1166,16 +1602,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E41" sqref="E41"/>
+      <selection pane="topRight" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1186,22 +1622,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="3"/>
+      <c r="A1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1425,21 +1861,18 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="H34" s="4"/>
-      <c r="M34" s="1">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1455,16 +1888,289 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M34" sqref="M34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
+    <col min="2" max="13" width="19.125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
   <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="58" orientation="landscape" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/remember/LOGGER.xlsx
+++ b/remember/LOGGER.xlsx
@@ -92,1125 +92,1495 @@
   <si>
     <t>1/1 (金)_x000D_
 元日</t>
-  </si>
-  <si>
-    <t>1/2 (土)</t>
-  </si>
-  <si>
-    <t>1/3 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/2 (土)_x000D_
+年末年始</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/3 (日)_x000D_
+年末年始</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/4 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/5 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/6 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/7 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/8 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/9 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/10 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/11 (月)_x000D_
 成人の日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/12 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/13 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/14 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/15 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/16 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/17 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/18 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/19 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/20 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/21 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/22 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/23 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/24 (日)</t>
-  </si>
-  <si>
-    <t>1/25 (月)_x000D_
-成人の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/25 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/26 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/27 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/28 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/29 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/30 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1/31 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/1 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/2 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/3 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/4 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/5 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/6 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/7 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/8 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/9 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/10 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/11 (木)_x000D_
 建国記念の日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/12 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/13 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/14 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/15 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/16 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/17 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/18 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/19 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/20 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/21 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/22 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/23 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/24 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/25 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/26 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/27 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/28 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2/29 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/1 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/2 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/3 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/4 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/5 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/6 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/7 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/8 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/9 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/10 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/11 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/12 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/13 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/14 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/15 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/16 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/17 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/18 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/19 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/20 (日)_x000D_
 春分の日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/21 (月)_x000D_
 振替休日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/22 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/23 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/24 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/25 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/26 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/27 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/28 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/29 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/30 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3/31 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/1 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/2 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/3 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/4 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/5 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/6 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/7 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/8 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/9 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/10 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/11 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/12 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/13 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/14 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/15 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/16 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/17 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/18 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/19 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/20 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/21 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/22 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/23 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/24 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/25 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/26 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/27 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/28 (木)</t>
-  </si>
-  <si>
-    <t>4/29 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/29 (金)_x000D_
+昭和の日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4/30 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/1 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/2 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/3 (火)_x000D_
 憲法記念日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/4 (水)_x000D_
 みどりの日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/5 (木)_x000D_
 こどもの日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/6 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/7 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/8 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/9 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/10 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/11 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/12 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/13 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/14 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/15 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/16 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/17 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/18 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/19 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/20 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/21 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/22 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/23 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/24 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/25 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/26 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/27 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/28 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/29 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/30 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5/31 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/1 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/2 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/3 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/4 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/5 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/6 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/7 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/8 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/9 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/10 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/11 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/12 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/13 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/14 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/15 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/16 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/17 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/18 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/19 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/20 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/21 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/22 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/23 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/24 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/25 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/26 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/27 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/28 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/29 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6/30 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/1 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/2 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/3 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/4 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/5 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/6 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/7 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/8 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/9 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/10 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/11 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/12 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/13 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/14 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/15 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/16 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/17 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/18 (月)_x000D_
 海の日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/19 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/20 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/21 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/22 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/23 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/24 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/25 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/26 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/27 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/28 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/29 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/30 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7/31 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/1 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/2 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/3 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/4 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/5 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/6 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/7 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/8 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/9 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/10 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/11 (木)_x000D_
 山の日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/12 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/13 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/14 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/15 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/16 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/17 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/18 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/19 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/20 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/21 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/22 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/23 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/24 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/25 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/26 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/27 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/28 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/29 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/30 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8/31 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/1 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/2 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/3 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/4 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/5 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/6 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/7 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/8 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/9 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/10 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/11 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/12 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/13 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/14 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/15 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/16 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/17 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/18 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/19 (月)_x000D_
 敬老の日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/20 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/21 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/22 (木)_x000D_
 秋分の日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/23 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/24 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/25 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/26 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/27 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/28 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/29 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>9/30 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/1 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/2 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/3 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/4 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/5 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/6 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/7 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/8 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/9 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/10 (月)_x000D_
 体育の日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/11 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/12 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/13 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/14 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/15 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/16 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/17 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/18 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/19 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/20 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/21 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/22 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/23 (日)</t>
-  </si>
-  <si>
-    <t>10/24 (月)_x000D_
-体育の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/24 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/25 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/26 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/27 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/28 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/29 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/30 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>10/31 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/1 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/2 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/3 (木)_x000D_
 文化の日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/4 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/5 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/6 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/7 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/8 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/9 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/10 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/11 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/12 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/13 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/14 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/15 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/16 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/17 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/18 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/19 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/20 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/21 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/22 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/23 (水)_x000D_
 勤労感謝の日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/24 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/25 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/26 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/27 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/28 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/29 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>11/30 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/1 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/2 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/3 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/4 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/5 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/6 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/7 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/8 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/9 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/10 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/11 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/12 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/13 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/14 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/15 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/16 (金)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/17 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/18 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/19 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/20 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/21 (水)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/22 (木)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/23 (金)_x000D_
 天皇の誕生日</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/24 (土)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/25 (日)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/26 (月)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/27 (火)</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>12/28 (水)</t>
-  </si>
-  <si>
-    <t>12/29 (木)</t>
-  </si>
-  <si>
-    <t>12/30 (金)</t>
-  </si>
-  <si>
-    <t>12/31 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/29 (木)_x000D_
+年末年始</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/30 (金)_x000D_
+年末年始</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/31 (土)_x000D_
+年末年始</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,8 +1611,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="HGｺﾞｼｯｸM"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="HGｺﾞｼｯｸM"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1257,7 +1643,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1304,7 +1696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1336,13 +1728,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1829,9 +2230,9 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1842,22 +2243,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1904,40 +2305,40 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="15" t="s">
         <v>350</v>
       </c>
     </row>
@@ -1945,40 +2346,40 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="15" t="s">
         <v>351</v>
       </c>
     </row>
@@ -1986,40 +2387,40 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="14" t="s">
         <v>352</v>
       </c>
     </row>
@@ -2027,40 +2428,40 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="14" t="s">
         <v>353</v>
       </c>
     </row>
@@ -2068,40 +2469,40 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="15" t="s">
         <v>354</v>
       </c>
     </row>
@@ -2109,40 +2510,40 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="15" t="s">
         <v>355</v>
       </c>
     </row>
@@ -2150,40 +2551,40 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="15" t="s">
         <v>356</v>
       </c>
     </row>
@@ -2191,40 +2592,40 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="15" t="s">
         <v>357</v>
       </c>
     </row>
@@ -2232,40 +2633,40 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="15" t="s">
         <v>358</v>
       </c>
     </row>
@@ -2273,40 +2674,40 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="14" t="s">
         <v>359</v>
       </c>
     </row>
@@ -2314,40 +2715,40 @@
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="14" t="s">
         <v>360</v>
       </c>
     </row>
@@ -2355,40 +2756,40 @@
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="M15" s="4" t="s">
+      <c r="M15" s="15" t="s">
         <v>361</v>
       </c>
     </row>
@@ -2396,40 +2797,40 @@
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="15" t="s">
         <v>362</v>
       </c>
     </row>
@@ -2437,40 +2838,40 @@
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="M17" s="4" t="s">
+      <c r="M17" s="15" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2478,40 +2879,40 @@
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="15" t="s">
         <v>364</v>
       </c>
     </row>
@@ -2519,40 +2920,40 @@
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J19" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="15" t="s">
         <v>365</v>
       </c>
     </row>
@@ -2560,40 +2961,40 @@
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="M20" s="13" t="s">
+      <c r="M20" s="14" t="s">
         <v>366</v>
       </c>
     </row>
@@ -2601,40 +3002,40 @@
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J21" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="14" t="s">
         <v>367</v>
       </c>
     </row>
@@ -2642,40 +3043,40 @@
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="M22" s="4" t="s">
+      <c r="M22" s="15" t="s">
         <v>368</v>
       </c>
     </row>
@@ -2683,40 +3084,40 @@
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J23" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="M23" s="4" t="s">
+      <c r="M23" s="15" t="s">
         <v>369</v>
       </c>
     </row>
@@ -2724,40 +3125,40 @@
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="J24" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="M24" s="15" t="s">
         <v>370</v>
       </c>
     </row>
@@ -2765,40 +3166,40 @@
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="M25" s="4" t="s">
+      <c r="M25" s="15" t="s">
         <v>371</v>
       </c>
     </row>
@@ -2806,40 +3207,40 @@
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="J26" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="K26" s="13" t="s">
+      <c r="K26" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="14" t="s">
         <v>372</v>
       </c>
     </row>
@@ -2847,40 +3248,40 @@
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="J27" s="13" t="s">
+      <c r="J27" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="14" t="s">
         <v>373</v>
       </c>
     </row>
@@ -2888,40 +3289,40 @@
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="J28" s="14" t="s">
         <v>283</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="14" t="s">
         <v>374</v>
       </c>
     </row>
@@ -2929,40 +3330,40 @@
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="15" t="s">
         <v>375</v>
       </c>
     </row>
@@ -2970,40 +3371,40 @@
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="I30" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="J30" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="L30" s="13" t="s">
+      <c r="L30" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="M30" s="4" t="s">
+      <c r="M30" s="15" t="s">
         <v>376</v>
       </c>
     </row>
@@ -3011,40 +3412,40 @@
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="M31" s="4" t="s">
+      <c r="M31" s="15" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3052,40 +3453,40 @@
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="J32" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="K32" s="13" t="s">
+      <c r="K32" s="14" t="s">
         <v>317</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="14" t="s">
         <v>378</v>
       </c>
     </row>
@@ -3093,38 +3494,38 @@
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="K33" s="13" t="s">
+      <c r="K33" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="14" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3132,30 +3533,30 @@
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="15" t="s">
         <v>105</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="15" t="s">
         <v>166</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="15" t="s">
         <v>258</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="4" t="s">
+      <c r="K34" s="15" t="s">
         <v>319</v>
       </c>
       <c r="L34" s="10"/>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="14" t="s">
         <v>380</v>
       </c>
     </row>
@@ -3188,7 +3589,7 @@
     <hyperlink ref="B12" r:id="rId9" display="2016/01/20160109.txt"/>
     <hyperlink ref="B13" r:id="rId10" display="2016/01/20160110.txt"/>
     <hyperlink ref="B14" r:id="rId11" display="2016/01/20160111.txt"/>
-    <hyperlink ref="B15" r:id="rId12" display="2016/01/20160112.txt"/>
+    <hyperlink ref="B15" r:id="rId12" display="2016\01\20160112.txt"/>
     <hyperlink ref="B16" r:id="rId13" display="2016/01/20160113.txt"/>
     <hyperlink ref="B17" r:id="rId14" display="2016/01/20160114.txt"/>
     <hyperlink ref="B18" r:id="rId15" display="2016/01/20160115.txt"/>
@@ -3573,21 +3974,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
       <c r="N1" s="3"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3678,6 +4079,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
+      <c r="B11" s="11"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">

--- a/remember/LOGGER.xlsx
+++ b/remember/LOGGER.xlsx
@@ -930,10 +930,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>7/26 (火)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>7/27 (水)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1573,6 +1569,10 @@
   <si>
     <t>12/31 (土)_x000D_
 年末年始</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/26 (火)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1734,9 +1734,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1744,6 +1741,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1853,7 +1853,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:M34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:M34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A3:M34"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="日" dataDxfId="27"/>
+    <tableColumn id="2" name="1 月" dataDxfId="26"/>
+    <tableColumn id="3" name="2 月" dataDxfId="25"/>
+    <tableColumn id="4" name="3 月" dataDxfId="24"/>
+    <tableColumn id="5" name="4 月" dataDxfId="23"/>
+    <tableColumn id="6" name="5 月" dataDxfId="22"/>
+    <tableColumn id="7" name="6 月" dataDxfId="21"/>
+    <tableColumn id="8" name="7 月" dataDxfId="20"/>
+    <tableColumn id="9" name="8 月" dataDxfId="19"/>
+    <tableColumn id="10" name="9 月" dataDxfId="18"/>
+    <tableColumn id="11" name="10 月" dataDxfId="17"/>
+    <tableColumn id="12" name="11 月" dataDxfId="16"/>
+    <tableColumn id="13" name="12 月" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A3:M34"/>
   <tableColumns count="13">
     <tableColumn id="1" name="日" dataDxfId="12"/>
@@ -1869,28 +1891,6 @@
     <tableColumn id="11" name="10 月" dataDxfId="2"/>
     <tableColumn id="12" name="11 月" dataDxfId="1"/>
     <tableColumn id="13" name="12 月" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A3:M34"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="日" dataDxfId="27"/>
-    <tableColumn id="2" name="1 月" dataDxfId="26"/>
-    <tableColumn id="3" name="2 月" dataDxfId="25"/>
-    <tableColumn id="4" name="3 月" dataDxfId="24"/>
-    <tableColumn id="5" name="4 月" dataDxfId="23"/>
-    <tableColumn id="6" name="5 月" dataDxfId="22"/>
-    <tableColumn id="7" name="6 月" dataDxfId="21"/>
-    <tableColumn id="8" name="7 月" dataDxfId="20"/>
-    <tableColumn id="9" name="8 月" dataDxfId="19"/>
-    <tableColumn id="10" name="9 月" dataDxfId="18"/>
-    <tableColumn id="11" name="10 月" dataDxfId="17"/>
-    <tableColumn id="12" name="11 月" dataDxfId="16"/>
-    <tableColumn id="13" name="12 月" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2230,9 +2230,9 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2243,21 +2243,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
       <c r="N1" s="12"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -2305,1259 +2305,1259 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>350</v>
+      <c r="I4" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>351</v>
+      <c r="I5" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>352</v>
+      <c r="I6" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="M7" s="14" t="s">
-        <v>353</v>
+      <c r="I7" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="I8" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>354</v>
+      <c r="I8" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="I9" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>355</v>
+      <c r="I9" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>356</v>
+      <c r="I10" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="I11" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>357</v>
+      <c r="I11" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="I12" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>358</v>
+      <c r="I12" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>359</v>
+      <c r="I13" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="I14" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="L14" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="M14" s="14" t="s">
-        <v>360</v>
+      <c r="I14" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="K15" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="M15" s="15" t="s">
-        <v>361</v>
+      <c r="I15" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="I16" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="K16" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>362</v>
+      <c r="I16" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="I17" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="K17" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="L17" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>363</v>
+      <c r="I17" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="I18" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>364</v>
+      <c r="I18" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="I19" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>365</v>
+      <c r="I19" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="M20" s="14" t="s">
-        <v>366</v>
+      <c r="I20" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="I21" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="M21" s="14" t="s">
-        <v>367</v>
+      <c r="I21" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="K22" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>368</v>
+      <c r="I22" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="I23" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>369</v>
+      <c r="I23" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="I24" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>370</v>
+      <c r="I24" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="I25" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>371</v>
+      <c r="I25" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="K26" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>372</v>
+      <c r="I26" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="M27" s="14" t="s">
-        <v>373</v>
+      <c r="I27" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="I28" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="J28" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>374</v>
+      <c r="I28" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="H29" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="M29" s="15" t="s">
-        <v>375</v>
+      <c r="H29" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="H30" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="K30" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="M30" s="15" t="s">
-        <v>376</v>
+      <c r="H30" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="L31" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>377</v>
+      <c r="H31" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="L32" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>378</v>
+      <c r="H32" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>165</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="K33" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="L33" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="M33" s="14" t="s">
-        <v>379</v>
+      <c r="H33" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>105</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="14" t="s">
         <v>166</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>258</v>
+      <c r="H34" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>257</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="15" t="s">
-        <v>319</v>
+      <c r="K34" s="14" t="s">
+        <v>318</v>
       </c>
       <c r="L34" s="10"/>
-      <c r="M34" s="14" t="s">
-        <v>380</v>
+      <c r="M34" s="13" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -3974,21 +3974,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
       <c r="N1" s="3"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">

--- a/remember/LOGGER.xlsx
+++ b/remember/LOGGER.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="15480" windowHeight="9165"/>
   </bookViews>
   <sheets>
-    <sheet name="2016" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="3" r:id="rId1"/>
     <sheet name="copy" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
@@ -86,6 +86,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>9/22 (木)_x000D_
+秋分の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/23 (水)_x000D_
+勤労感謝の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>[2016年] カレンダー</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -930,6 +940,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>7/26 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>7/27 (水)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -958,7 +972,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>8/3 (水)</t>
+    <t>8/3 (水)_x000D_
+NSW創始日</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1160,11 +1175,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>9/22 (木)_x000D_
-秋分の日</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>9/23 (金)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1411,11 +1421,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>11/23 (水)_x000D_
-勤労感謝の日</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>11/24 (木)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1569,10 +1574,6 @@
   <si>
     <t>12/31 (土)_x000D_
 年末年始</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>7/26 (火)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1628,7 +1629,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1638,12 +1639,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1728,22 +1723,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1853,7 +1848,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:M34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:M34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A3:M34"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="日" dataDxfId="12"/>
+    <tableColumn id="2" name="1 月" dataDxfId="11"/>
+    <tableColumn id="3" name="2 月" dataDxfId="10"/>
+    <tableColumn id="4" name="3 月" dataDxfId="9"/>
+    <tableColumn id="5" name="4 月" dataDxfId="8"/>
+    <tableColumn id="6" name="5 月" dataDxfId="7"/>
+    <tableColumn id="7" name="6 月" dataDxfId="6"/>
+    <tableColumn id="8" name="7 月" dataDxfId="5"/>
+    <tableColumn id="9" name="8 月" dataDxfId="4"/>
+    <tableColumn id="10" name="9 月" dataDxfId="3"/>
+    <tableColumn id="11" name="10 月" dataDxfId="2"/>
+    <tableColumn id="12" name="11 月" dataDxfId="1"/>
+    <tableColumn id="13" name="12 月" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A3:M34"/>
   <tableColumns count="13">
     <tableColumn id="1" name="日" dataDxfId="27"/>
@@ -1869,28 +1886,6 @@
     <tableColumn id="11" name="10 月" dataDxfId="17"/>
     <tableColumn id="12" name="11 月" dataDxfId="16"/>
     <tableColumn id="13" name="12 月" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A3:M34"/>
-  <tableColumns count="13">
-    <tableColumn id="1" name="日" dataDxfId="12"/>
-    <tableColumn id="2" name="1 月" dataDxfId="11"/>
-    <tableColumn id="3" name="2 月" dataDxfId="10"/>
-    <tableColumn id="4" name="3 月" dataDxfId="9"/>
-    <tableColumn id="5" name="4 月" dataDxfId="8"/>
-    <tableColumn id="6" name="5 月" dataDxfId="7"/>
-    <tableColumn id="7" name="6 月" dataDxfId="6"/>
-    <tableColumn id="8" name="7 月" dataDxfId="5"/>
-    <tableColumn id="9" name="8 月" dataDxfId="4"/>
-    <tableColumn id="10" name="9 月" dataDxfId="3"/>
-    <tableColumn id="11" name="10 月" dataDxfId="2"/>
-    <tableColumn id="12" name="11 月" dataDxfId="1"/>
-    <tableColumn id="13" name="12 月" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2230,9 +2225,9 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2243,22 +2238,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -2305,1259 +2300,1259 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="L4" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>349</v>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>350</v>
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>351</v>
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>352</v>
+      <c r="B7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>353</v>
+      <c r="B8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>354</v>
+      <c r="B9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>355</v>
+      <c r="B10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>356</v>
+      <c r="B11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>357</v>
+      <c r="B12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>358</v>
+      <c r="B13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>359</v>
+      <c r="B14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>360</v>
+      <c r="B15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>361</v>
+      <c r="B16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="M17" s="14" t="s">
-        <v>362</v>
+      <c r="B17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="M18" s="14" t="s">
-        <v>363</v>
+      <c r="B18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="M19" s="14" t="s">
-        <v>364</v>
+      <c r="B19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>365</v>
+      <c r="B20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>366</v>
+      <c r="B21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>367</v>
+      <c r="B22" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>368</v>
+      <c r="B23" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>21</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>369</v>
+      <c r="B24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>370</v>
+      <c r="B25" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>371</v>
+      <c r="B26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>24</v>
       </c>
-      <c r="B27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="H27" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>372</v>
+      <c r="B27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>25</v>
       </c>
-      <c r="B28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="K28" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="M28" s="13" t="s">
-        <v>373</v>
+      <c r="B28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>374</v>
+      <c r="B29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>27</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>375</v>
+      <c r="B30" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>28</v>
       </c>
-      <c r="B31" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>376</v>
+      <c r="B31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>377</v>
+      <c r="B32" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>30</v>
       </c>
-      <c r="B33" s="13" t="s">
-        <v>44</v>
+      <c r="B33" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="L33" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="M33" s="13" t="s">
-        <v>378</v>
+      <c r="D33" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="13" t="s">
-        <v>45</v>
+      <c r="B34" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C34" s="9"/>
-      <c r="D34" s="14" t="s">
-        <v>105</v>
+      <c r="D34" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="14" t="s">
-        <v>166</v>
+      <c r="F34" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>257</v>
+      <c r="H34" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="14" t="s">
-        <v>318</v>
+      <c r="K34" s="13" t="s">
+        <v>320</v>
       </c>
       <c r="L34" s="10"/>
-      <c r="M34" s="13" t="s">
-        <v>379</v>
+      <c r="M34" s="12" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
@@ -3589,7 +3584,7 @@
     <hyperlink ref="B12" r:id="rId9" display="2016/01/20160109.txt"/>
     <hyperlink ref="B13" r:id="rId10" display="2016/01/20160110.txt"/>
     <hyperlink ref="B14" r:id="rId11" display="2016/01/20160111.txt"/>
-    <hyperlink ref="B15" r:id="rId12" display="2016\01\20160112.txt"/>
+    <hyperlink ref="B15" r:id="rId12" display="2016/01/20160112.txt"/>
     <hyperlink ref="B16" r:id="rId13" display="2016/01/20160113.txt"/>
     <hyperlink ref="B17" r:id="rId14" display="2016/01/20160114.txt"/>
     <hyperlink ref="B18" r:id="rId15" display="2016/01/20160115.txt"/>
@@ -3974,21 +3969,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
       <c r="N1" s="3"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -4079,7 +4074,7 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="15"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">

--- a/remember/LOGGER.xlsx
+++ b/remember/LOGGER.xlsx
@@ -4,22 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="15480" windowHeight="9165"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="15480" windowHeight="9165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="3" r:id="rId1"/>
-    <sheet name="copy" sheetId="1" r:id="rId2"/>
+    <sheet name="2017" sheetId="4" r:id="rId2"/>
+    <sheet name="copy" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'2016'!$A$1:$F$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">copy!$A$1:$F$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'2017'!$A$1:$F$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">copy!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="747">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -1573,6 +1575,1492 @@
   </si>
   <si>
     <t>12/31 (土)_x000D_
+年末年始</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[2017年] カレンダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/1 (日)_x000D_
+元日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/2 (月)_x000D_
+振替休日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/3 (火)_x000D_
+年末年始</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/4 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/5 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/6 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/7 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/8 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/9 (月)_x000D_
+成人の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/10 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/11 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/12 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/13 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/14 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/15 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/16 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/17 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/18 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/19 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/20 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/21 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/22 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/23 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/24 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/25 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/26 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/27 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/28 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/29 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/30 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1/31 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/1 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/2 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/3 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/4 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/5 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/6 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/7 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/8 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/9 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/10 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/11 (土)_x000D_
+建国記念の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/12 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/13 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/14 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/15 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/16 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/17 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/18 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/19 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/20 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/21 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/22 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/23 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/24 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/25 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/26 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/27 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2/28 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/1 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/2 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/3 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/4 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/5 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/6 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/7 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/8 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/9 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/10 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/11 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/12 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/13 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/14 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/15 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/16 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/17 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/18 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/19 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/20 (月)_x000D_
+春分の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/21 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/22 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/23 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/24 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/25 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/26 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/27 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/28 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/29 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/30 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3/31 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/1 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/2 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/3 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/4 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/5 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/6 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/7 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/8 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/9 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/10 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/11 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/12 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/13 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/14 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/15 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/16 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/17 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/18 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/19 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/20 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/21 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/22 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/23 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/24 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/25 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/26 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/27 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/28 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/29 (土)_x000D_
+昭和の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4/30 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/1 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/2 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/3 (水)_x000D_
+憲法記念日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/4 (木)_x000D_
+みどりの日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/5 (金)_x000D_
+こどもの日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/6 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/7 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/8 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/9 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/10 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/11 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/12 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/13 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/14 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/15 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/16 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/17 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/18 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/19 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/20 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/21 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/22 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/23 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/24 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/25 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/26 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/27 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/28 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/29 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/30 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5/31 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/1 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/2 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/3 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/4 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/5 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/6 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/7 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/8 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/9 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/10 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/11 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/12 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/13 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/14 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/15 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/16 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/17 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/18 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/19 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/20 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/21 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/22 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/23 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/24 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/25 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/26 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/27 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/28 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/29 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>6/30 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/1 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/2 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/3 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/4 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/5 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/6 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/7 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/8 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/9 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/10 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/11 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/12 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/13 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/14 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/15 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/16 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/17 (月)_x000D_
+海の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/18 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/19 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/20 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/21 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/22 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/23 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/24 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/25 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/26 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/27 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/28 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/29 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/30 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7/31 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/1 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/2 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/3 (木)_x000D_
+NSW創始日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/4 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/5 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/6 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/7 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/8 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/9 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/10 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/11 (金)_x000D_
+山の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/12 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/13 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/14 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/15 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/16 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/17 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/18 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/19 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/20 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/21 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/22 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/23 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/24 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/25 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/26 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/27 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/28 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/29 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/30 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8/31 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/1 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/2 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/3 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/4 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/5 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/6 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/7 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/8 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/9 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/10 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/11 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/12 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/13 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/14 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/15 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/16 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/17 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/18 (月)_x000D_
+敬老の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/19 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/20 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/21 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/22 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/23 (土)_x000D_
+秋分の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/24 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/25 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/26 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/27 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/28 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/29 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>9/30 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/1 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/2 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/3 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/4 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/5 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/6 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/7 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/8 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/9 (月)_x000D_
+体育の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/10 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/11 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/12 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/13 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/14 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/15 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/16 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/17 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/18 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/19 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/20 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/21 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/22 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/23 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/24 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/25 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/26 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/27 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/28 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/29 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/30 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10/31 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/1 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/2 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/3 (金)_x000D_
+文化の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/4 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/5 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/6 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/7 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/8 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/9 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/10 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/11 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/12 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/13 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/14 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/15 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/16 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/17 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/18 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/19 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/20 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/21 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/22 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/23 (木)_x000D_
+勤労感謝の日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/24 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/25 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/26 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/27 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/28 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/29 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>11/30 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/1 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/2 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/3 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/4 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/5 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/6 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/7 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/8 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/9 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/10 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/11 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/12 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/13 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/14 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/15 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/16 (土)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/17 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/18 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/19 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/20 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/21 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/22 (金)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/23 (土)_x000D_
+天皇の誕生日</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/24 (日)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/25 (月)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/26 (火)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/27 (水)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/28 (木)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/29 (金)_x000D_
+年末年始</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/30 (土)_x000D_
+年末年始</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12/31 (日)_x000D_
 年末年始</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1629,7 +3117,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1648,8 +3136,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1686,12 +3180,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1741,12 +3244,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="45">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1848,7 +3402,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:M34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A3:M34" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A3:M34"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="日" dataDxfId="42"/>
+    <tableColumn id="2" name="1 月" dataDxfId="41"/>
+    <tableColumn id="3" name="2 月" dataDxfId="40"/>
+    <tableColumn id="4" name="3 月" dataDxfId="39"/>
+    <tableColumn id="5" name="4 月" dataDxfId="38"/>
+    <tableColumn id="6" name="5 月" dataDxfId="37"/>
+    <tableColumn id="7" name="6 月" dataDxfId="36"/>
+    <tableColumn id="8" name="7 月" dataDxfId="35"/>
+    <tableColumn id="9" name="8 月" dataDxfId="34"/>
+    <tableColumn id="10" name="9 月" dataDxfId="33"/>
+    <tableColumn id="11" name="10 月" dataDxfId="32"/>
+    <tableColumn id="12" name="11 月" dataDxfId="31"/>
+    <tableColumn id="13" name="12 月" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table14" displayName="Table14" ref="A3:M34" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A3:M34"/>
   <tableColumns count="13">
     <tableColumn id="1" name="日" dataDxfId="12"/>
@@ -1869,7 +3445,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:M34" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A3:M34"/>
   <tableColumns count="13">
@@ -2225,7 +3801,7 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -2238,21 +3814,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="11"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -3956,6 +5532,1734 @@
   </sheetPr>
   <dimension ref="A1:N38"/>
   <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
+    <col min="2" max="13" width="19.125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>686</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>656</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>657</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>658</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="M7" s="13" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>568</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>631</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>692</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>693</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>602</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>694</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>664</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>666</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>575</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>698</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>638</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>699</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>639</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>670</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>701</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>610</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>20</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>552</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>21</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>614</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>645</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>22</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>554</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>646</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>23</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>463</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>24</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>709</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>649</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>26</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>27</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>681</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>28</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>652</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>713</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="13" t="s">
+        <v>469</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>622</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>30</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>31</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>624</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="12" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I38" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M1"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="2017/01/20170101.txt"/>
+    <hyperlink ref="B5" r:id="rId2" display="2017/01/20170102.txt"/>
+    <hyperlink ref="B6" r:id="rId3" display="2017/01/20170103.txt"/>
+    <hyperlink ref="B7" r:id="rId4" display="2017/01/20170104.txt"/>
+    <hyperlink ref="B8" r:id="rId5" display="2017/01/20170105.txt"/>
+    <hyperlink ref="B9" r:id="rId6" display="2017/01/20170106.txt"/>
+    <hyperlink ref="B10" r:id="rId7" display="2017/01/20170107.txt"/>
+    <hyperlink ref="B11" r:id="rId8" display="2017/01/20170108.txt"/>
+    <hyperlink ref="B12" r:id="rId9" display="2017/01/20170109.txt"/>
+    <hyperlink ref="B13" r:id="rId10" display="2017/01/20170110.txt"/>
+    <hyperlink ref="B14" r:id="rId11" display="2017/01/20170111.txt"/>
+    <hyperlink ref="B15" r:id="rId12" display="2017/01/20170112.txt"/>
+    <hyperlink ref="B16" r:id="rId13" display="2017/01/20170113.txt"/>
+    <hyperlink ref="B17" r:id="rId14" display="2017/01/20170114.txt"/>
+    <hyperlink ref="B18" r:id="rId15" display="2017/01/20170115.txt"/>
+    <hyperlink ref="B19" r:id="rId16" display="2017/01/20170116.txt"/>
+    <hyperlink ref="B20" r:id="rId17" display="2017/01/20170117.txt"/>
+    <hyperlink ref="B21" r:id="rId18" display="2017/01/20170118.txt"/>
+    <hyperlink ref="B22" r:id="rId19" display="2017/01/20170119.txt"/>
+    <hyperlink ref="B23" r:id="rId20" display="2017/01/20170120.txt"/>
+    <hyperlink ref="B24" r:id="rId21" display="2017/01/20170121.txt"/>
+    <hyperlink ref="B25" r:id="rId22" display="2017/01/20170122.txt"/>
+    <hyperlink ref="B26" r:id="rId23" display="2017/01/20170123.txt"/>
+    <hyperlink ref="B27" r:id="rId24" display="2017/01/20170124.txt"/>
+    <hyperlink ref="B28" r:id="rId25" display="2017/01/20170125.txt"/>
+    <hyperlink ref="B29" r:id="rId26" display="2017/01/20170126.txt"/>
+    <hyperlink ref="B30" r:id="rId27" display="2017/01/20170127.txt"/>
+    <hyperlink ref="B31" r:id="rId28" display="2017/01/20170128.txt"/>
+    <hyperlink ref="B32" r:id="rId29" display="2017/01/20170129.txt"/>
+    <hyperlink ref="B33" r:id="rId30" display="2017/01/20170130.txt"/>
+    <hyperlink ref="B34" r:id="rId31" display="2017/01/20170131.txt"/>
+    <hyperlink ref="C4" r:id="rId32" display="2017/02/20170201.txt"/>
+    <hyperlink ref="C5" r:id="rId33" display="2017/02/20170202.txt"/>
+    <hyperlink ref="C6" r:id="rId34" display="2017/02/20170203.txt"/>
+    <hyperlink ref="C7" r:id="rId35" display="2017/02/20170204.txt"/>
+    <hyperlink ref="C8" r:id="rId36" display="2017/02/20170205.txt"/>
+    <hyperlink ref="C9" r:id="rId37" display="2017/02/20170206.txt"/>
+    <hyperlink ref="C10" r:id="rId38" display="2017/02/20170207.txt"/>
+    <hyperlink ref="C11" r:id="rId39" display="2017/02/20170208.txt"/>
+    <hyperlink ref="C12" r:id="rId40" display="2017/02/20170209.txt"/>
+    <hyperlink ref="C13" r:id="rId41" display="2017/02/20170210.txt"/>
+    <hyperlink ref="C14" r:id="rId42" display="2017/02/20170211.txt"/>
+    <hyperlink ref="C15" r:id="rId43" display="2017/02/20170212.txt"/>
+    <hyperlink ref="C16" r:id="rId44" display="2017/02/20170213.txt"/>
+    <hyperlink ref="C17" r:id="rId45" display="2017/02/20170214.txt"/>
+    <hyperlink ref="C18" r:id="rId46" display="2017/02/20170215.txt"/>
+    <hyperlink ref="C19" r:id="rId47" display="2017/02/20170216.txt"/>
+    <hyperlink ref="C20" r:id="rId48" display="2017/02/20170217.txt"/>
+    <hyperlink ref="C21" r:id="rId49" display="2017/02/20170218.txt"/>
+    <hyperlink ref="C22" r:id="rId50" display="2017/02/20170219.txt"/>
+    <hyperlink ref="C23" r:id="rId51" display="2017/02/20170220.txt"/>
+    <hyperlink ref="C24" r:id="rId52" display="2017/02/20170221.txt"/>
+    <hyperlink ref="C25" r:id="rId53" display="2017/02/20170222.txt"/>
+    <hyperlink ref="C26" r:id="rId54" display="2017/02/20170223.txt"/>
+    <hyperlink ref="C27" r:id="rId55" display="2017/02/20170224.txt"/>
+    <hyperlink ref="C28" r:id="rId56" display="2017/02/20170225.txt"/>
+    <hyperlink ref="C29" r:id="rId57" display="2017/02/20170226.txt"/>
+    <hyperlink ref="C30" r:id="rId58" display="2017/02/20170227.txt"/>
+    <hyperlink ref="C31" r:id="rId59" display="2017/02/20170228.txt"/>
+    <hyperlink ref="D4" r:id="rId60" display="2017/03/20170301.txt"/>
+    <hyperlink ref="D5" r:id="rId61" display="2017/03/20170302.txt"/>
+    <hyperlink ref="D6" r:id="rId62" display="2017/03/20170303.txt"/>
+    <hyperlink ref="D7" r:id="rId63" display="2017/03/20170304.txt"/>
+    <hyperlink ref="D8" r:id="rId64" display="2017/03/20170305.txt"/>
+    <hyperlink ref="D9" r:id="rId65" display="2017/03/20170306.txt"/>
+    <hyperlink ref="D10" r:id="rId66" display="2017/03/20170307.txt"/>
+    <hyperlink ref="D11" r:id="rId67" display="2017/03/20170308.txt"/>
+    <hyperlink ref="D12" r:id="rId68" display="2017/03/20170309.txt"/>
+    <hyperlink ref="D13" r:id="rId69" display="2017/03/20170310.txt"/>
+    <hyperlink ref="D14" r:id="rId70" display="2017/03/20170311.txt"/>
+    <hyperlink ref="D15" r:id="rId71" display="2017/03/20170312.txt"/>
+    <hyperlink ref="D16" r:id="rId72" display="2017/03/20170313.txt"/>
+    <hyperlink ref="D17" r:id="rId73" display="2017/03/20170314.txt"/>
+    <hyperlink ref="D18" r:id="rId74" display="2017/03/20170315.txt"/>
+    <hyperlink ref="D19" r:id="rId75" display="2017/03/20170316.txt"/>
+    <hyperlink ref="D20" r:id="rId76" display="2017/03/20170317.txt"/>
+    <hyperlink ref="D21" r:id="rId77" display="2017/03/20170318.txt"/>
+    <hyperlink ref="D22" r:id="rId78" display="2017/03/20170319.txt"/>
+    <hyperlink ref="D23" r:id="rId79" display="2017/03/20170320.txt"/>
+    <hyperlink ref="D24" r:id="rId80" display="2017/03/20170321.txt"/>
+    <hyperlink ref="D25" r:id="rId81" display="2017/03/20170322.txt"/>
+    <hyperlink ref="D26" r:id="rId82" display="2017/03/20170323.txt"/>
+    <hyperlink ref="D27" r:id="rId83" display="2017/03/20170324.txt"/>
+    <hyperlink ref="D28" r:id="rId84" display="2017/03/20170325.txt"/>
+    <hyperlink ref="D29" r:id="rId85" display="2017/03/20170326.txt"/>
+    <hyperlink ref="D30" r:id="rId86" display="2017/03/20170327.txt"/>
+    <hyperlink ref="D31" r:id="rId87" display="2017/03/20170328.txt"/>
+    <hyperlink ref="D32" r:id="rId88" display="2017/03/20170329.txt"/>
+    <hyperlink ref="D33" r:id="rId89" display="2017/03/20170330.txt"/>
+    <hyperlink ref="D34" r:id="rId90" display="2017/03/20170331.txt"/>
+    <hyperlink ref="E4" r:id="rId91" display="2017/04/20170401.txt"/>
+    <hyperlink ref="E5" r:id="rId92" display="2017/04/20170402.txt"/>
+    <hyperlink ref="E6" r:id="rId93" display="2017/04/20170403.txt"/>
+    <hyperlink ref="E7" r:id="rId94" display="2017/04/20170404.txt"/>
+    <hyperlink ref="E8" r:id="rId95" display="2017/04/20170405.txt"/>
+    <hyperlink ref="E9" r:id="rId96" display="2017/04/20170406.txt"/>
+    <hyperlink ref="E10" r:id="rId97" display="2017/04/20170407.txt"/>
+    <hyperlink ref="E11" r:id="rId98" display="2017/04/20170408.txt"/>
+    <hyperlink ref="E12" r:id="rId99" display="2017/04/20170409.txt"/>
+    <hyperlink ref="E13" r:id="rId100" display="2017/04/20170410.txt"/>
+    <hyperlink ref="E14" r:id="rId101" display="2017/04/20170411.txt"/>
+    <hyperlink ref="E15" r:id="rId102" display="2017/04/20170412.txt"/>
+    <hyperlink ref="E16" r:id="rId103" display="2017/04/20170413.txt"/>
+    <hyperlink ref="E17" r:id="rId104" display="2017/04/20170414.txt"/>
+    <hyperlink ref="E18" r:id="rId105" display="2017/04/20170415.txt"/>
+    <hyperlink ref="E19" r:id="rId106" display="2017/04/20170416.txt"/>
+    <hyperlink ref="E20" r:id="rId107" display="2017/04/20170417.txt"/>
+    <hyperlink ref="E21" r:id="rId108" display="2017/04/20170418.txt"/>
+    <hyperlink ref="E22" r:id="rId109" display="2017/04/20170419.txt"/>
+    <hyperlink ref="E23" r:id="rId110" display="2017/04/20170420.txt"/>
+    <hyperlink ref="E24" r:id="rId111" display="2017/04/20170421.txt"/>
+    <hyperlink ref="E25" r:id="rId112" display="2017/04/20170422.txt"/>
+    <hyperlink ref="E26" r:id="rId113" display="2017/04/20170423.txt"/>
+    <hyperlink ref="E27" r:id="rId114" display="2017/04/20170424.txt"/>
+    <hyperlink ref="E28" r:id="rId115" display="2017/04/20170425.txt"/>
+    <hyperlink ref="E29" r:id="rId116" display="2017/04/20170426.txt"/>
+    <hyperlink ref="E30" r:id="rId117" display="2017/04/20170427.txt"/>
+    <hyperlink ref="E31" r:id="rId118" display="2017/04/20170428.txt"/>
+    <hyperlink ref="E32" r:id="rId119" display="2017/04/20170429.txt"/>
+    <hyperlink ref="E33" r:id="rId120" display="2017/04/20170430.txt"/>
+    <hyperlink ref="F4" r:id="rId121" display="2017/05/20170501.txt"/>
+    <hyperlink ref="F5" r:id="rId122" display="2017/05/20170502.txt"/>
+    <hyperlink ref="F6" r:id="rId123" display="2017/05/20170503.txt"/>
+    <hyperlink ref="F7" r:id="rId124" display="2017/05/20170504.txt"/>
+    <hyperlink ref="F8" r:id="rId125" display="2017/05/20170505.txt"/>
+    <hyperlink ref="F9" r:id="rId126" display="2017/05/20170506.txt"/>
+    <hyperlink ref="F10" r:id="rId127" display="2017/05/20170507.txt"/>
+    <hyperlink ref="F11" r:id="rId128" display="2017/05/20170508.txt"/>
+    <hyperlink ref="F12" r:id="rId129" display="2017/05/20170509.txt"/>
+    <hyperlink ref="F13" r:id="rId130" display="2017/05/20170510.txt"/>
+    <hyperlink ref="F14" r:id="rId131" display="2017/05/20170511.txt"/>
+    <hyperlink ref="F15" r:id="rId132" display="2017/05/20170512.txt"/>
+    <hyperlink ref="F16" r:id="rId133" display="2017/05/20170513.txt"/>
+    <hyperlink ref="F17" r:id="rId134" display="2017/05/20170514.txt"/>
+    <hyperlink ref="F18" r:id="rId135" display="2017/05/20170515.txt"/>
+    <hyperlink ref="F19" r:id="rId136" display="2017/05/20170516.txt"/>
+    <hyperlink ref="F20" r:id="rId137" display="2017/05/20170517.txt"/>
+    <hyperlink ref="F21" r:id="rId138" display="2017/05/20170518.txt"/>
+    <hyperlink ref="F22" r:id="rId139" display="2017/05/20170519.txt"/>
+    <hyperlink ref="F23" r:id="rId140" display="2017/05/20170520.txt"/>
+    <hyperlink ref="F24" r:id="rId141" display="2017/05/20170521.txt"/>
+    <hyperlink ref="F25" r:id="rId142" display="2017/05/20170522.txt"/>
+    <hyperlink ref="F26" r:id="rId143" display="2017/05/20170523.txt"/>
+    <hyperlink ref="F27" r:id="rId144" display="2017/05/20170524.txt"/>
+    <hyperlink ref="F28" r:id="rId145" display="2017/05/20170525.txt"/>
+    <hyperlink ref="F29" r:id="rId146" display="2017/05/20170526.txt"/>
+    <hyperlink ref="F30" r:id="rId147" display="2017/05/20170527.txt"/>
+    <hyperlink ref="F31" r:id="rId148" display="2017/05/20170528.txt"/>
+    <hyperlink ref="F32" r:id="rId149" display="2017/05/20170529.txt"/>
+    <hyperlink ref="F33" r:id="rId150" display="2017/05/20170530.txt"/>
+    <hyperlink ref="F34" r:id="rId151" display="2017/05/20170531.txt"/>
+    <hyperlink ref="G4" r:id="rId152" display="2017/06/20170601.txt"/>
+    <hyperlink ref="G5" r:id="rId153" display="2017/06/20170602.txt"/>
+    <hyperlink ref="G6" r:id="rId154" display="2017/06/20170603.txt"/>
+    <hyperlink ref="G7" r:id="rId155" display="2017/06/20170604.txt"/>
+    <hyperlink ref="G8" r:id="rId156" display="2017/06/20170605.txt"/>
+    <hyperlink ref="G9" r:id="rId157" display="2017/06/20170606.txt"/>
+    <hyperlink ref="G10" r:id="rId158" display="2017/06/20170607.txt"/>
+    <hyperlink ref="G11" r:id="rId159" display="2017/06/20170608.txt"/>
+    <hyperlink ref="G12" r:id="rId160" display="2017/06/20170609.txt"/>
+    <hyperlink ref="G13" r:id="rId161" display="2017/06/20170610.txt"/>
+    <hyperlink ref="G14" r:id="rId162" display="2017/06/20170611.txt"/>
+    <hyperlink ref="G15" r:id="rId163" display="2017/06/20170612.txt"/>
+    <hyperlink ref="G16" r:id="rId164" display="2017/06/20170613.txt"/>
+    <hyperlink ref="G17" r:id="rId165" display="2017/06/20170614.txt"/>
+    <hyperlink ref="G18" r:id="rId166" display="2017/06/20170615.txt"/>
+    <hyperlink ref="G19" r:id="rId167" display="2017/06/20170616.txt"/>
+    <hyperlink ref="G20" r:id="rId168" display="2017/06/20170617.txt"/>
+    <hyperlink ref="G21" r:id="rId169" display="2017/06/20170618.txt"/>
+    <hyperlink ref="G22" r:id="rId170" display="2017/06/20170619.txt"/>
+    <hyperlink ref="G23" r:id="rId171" display="2017/06/20170620.txt"/>
+    <hyperlink ref="G24" r:id="rId172" display="2017/06/20170621.txt"/>
+    <hyperlink ref="G25" r:id="rId173" display="2017/06/20170622.txt"/>
+    <hyperlink ref="G26" r:id="rId174" display="2017/06/20170623.txt"/>
+    <hyperlink ref="G27" r:id="rId175" display="2017/06/20170624.txt"/>
+    <hyperlink ref="G28" r:id="rId176" display="2017/06/20170625.txt"/>
+    <hyperlink ref="G29" r:id="rId177" display="2017/06/20170626.txt"/>
+    <hyperlink ref="G30" r:id="rId178" display="2017/06/20170627.txt"/>
+    <hyperlink ref="G31" r:id="rId179" display="2017/06/20170628.txt"/>
+    <hyperlink ref="G32" r:id="rId180" display="2017/06/20170629.txt"/>
+    <hyperlink ref="G33" r:id="rId181" display="2017/06/20170630.txt"/>
+    <hyperlink ref="H4" r:id="rId182" display="2017/07/20170701.txt"/>
+    <hyperlink ref="H5" r:id="rId183" display="2017/07/20170702.txt"/>
+    <hyperlink ref="H6" r:id="rId184" display="2017/07/20170703.txt"/>
+    <hyperlink ref="H7" r:id="rId185" display="2017/07/20170704.txt"/>
+    <hyperlink ref="H8" r:id="rId186" display="2017/07/20170705.txt"/>
+    <hyperlink ref="H9" r:id="rId187" display="2017/07/20170706.txt"/>
+    <hyperlink ref="H10" r:id="rId188" display="2017/07/20170707.txt"/>
+    <hyperlink ref="H11" r:id="rId189" display="2017/07/20170708.txt"/>
+    <hyperlink ref="H12" r:id="rId190" display="2017/07/20170709.txt"/>
+    <hyperlink ref="H13" r:id="rId191" display="2017/07/20170710.txt"/>
+    <hyperlink ref="H14" r:id="rId192" display="2017/07/20170711.txt"/>
+    <hyperlink ref="H15" r:id="rId193" display="2017/07/20170712.txt"/>
+    <hyperlink ref="H16" r:id="rId194" display="2017/07/20170713.txt"/>
+    <hyperlink ref="H17" r:id="rId195" display="2017/07/20170714.txt"/>
+    <hyperlink ref="H18" r:id="rId196" display="2017/07/20170715.txt"/>
+    <hyperlink ref="H19" r:id="rId197" display="2017/07/20170716.txt"/>
+    <hyperlink ref="H20" r:id="rId198" display="2017/07/20170717.txt"/>
+    <hyperlink ref="H21" r:id="rId199" display="2017/07/20170718.txt"/>
+    <hyperlink ref="H22" r:id="rId200" display="2017/07/20170719.txt"/>
+    <hyperlink ref="H23" r:id="rId201" display="2017/07/20170720.txt"/>
+    <hyperlink ref="H24" r:id="rId202" display="2017/07/20170721.txt"/>
+    <hyperlink ref="H25" r:id="rId203" display="2017/07/20170722.txt"/>
+    <hyperlink ref="H26" r:id="rId204" display="2017/07/20170723.txt"/>
+    <hyperlink ref="H27" r:id="rId205" display="2017/07/20170724.txt"/>
+    <hyperlink ref="H28" r:id="rId206" display="2017/07/20170725.txt"/>
+    <hyperlink ref="H29" r:id="rId207" display="2017/07/20170726.txt"/>
+    <hyperlink ref="H30" r:id="rId208" display="2017/07/20170727.txt"/>
+    <hyperlink ref="H31" r:id="rId209" display="2017/07/20170728.txt"/>
+    <hyperlink ref="H32" r:id="rId210" display="2017/07/20170729.txt"/>
+    <hyperlink ref="H33" r:id="rId211" display="2017/07/20170730.txt"/>
+    <hyperlink ref="H34" r:id="rId212" display="2017/07/20170731.txt"/>
+    <hyperlink ref="I4" r:id="rId213" display="2017/08/20170801.txt"/>
+    <hyperlink ref="I5" r:id="rId214" display="2017/08/20170802.txt"/>
+    <hyperlink ref="I6" r:id="rId215" display="2017/08/20170803.txt"/>
+    <hyperlink ref="I7" r:id="rId216" display="2017/08/20170804.txt"/>
+    <hyperlink ref="I8" r:id="rId217" display="2017/08/20170805.txt"/>
+    <hyperlink ref="I9" r:id="rId218" display="2017/08/20170806.txt"/>
+    <hyperlink ref="I10" r:id="rId219" display="2017/08/20170807.txt"/>
+    <hyperlink ref="I11" r:id="rId220" display="2017/08/20170808.txt"/>
+    <hyperlink ref="I12" r:id="rId221" display="2017/08/20170809.txt"/>
+    <hyperlink ref="I13" r:id="rId222" display="2017/08/20170810.txt"/>
+    <hyperlink ref="I14" r:id="rId223" display="2017/08/20170811.txt"/>
+    <hyperlink ref="I15" r:id="rId224" display="2017/08/20170812.txt"/>
+    <hyperlink ref="I16" r:id="rId225" display="2017/08/20170813.txt"/>
+    <hyperlink ref="I17" r:id="rId226" display="2017/08/20170814.txt"/>
+    <hyperlink ref="I18" r:id="rId227" display="2017/08/20170815.txt"/>
+    <hyperlink ref="I19" r:id="rId228" display="2017/08/20170816.txt"/>
+    <hyperlink ref="I20" r:id="rId229" display="2017/08/20170817.txt"/>
+    <hyperlink ref="I21" r:id="rId230" display="2017/08/20170818.txt"/>
+    <hyperlink ref="I22" r:id="rId231" display="2017/08/20170819.txt"/>
+    <hyperlink ref="I23" r:id="rId232" display="2017/08/20170820.txt"/>
+    <hyperlink ref="I24" r:id="rId233" display="2017/08/20170821.txt"/>
+    <hyperlink ref="I25" r:id="rId234" display="2017/08/20170822.txt"/>
+    <hyperlink ref="I26" r:id="rId235" display="2017/08/20170823.txt"/>
+    <hyperlink ref="I27" r:id="rId236" display="2017/08/20170824.txt"/>
+    <hyperlink ref="I28" r:id="rId237" display="2017/08/20170825.txt"/>
+    <hyperlink ref="I29" r:id="rId238" display="2017/08/20170826.txt"/>
+    <hyperlink ref="I30" r:id="rId239" display="2017/08/20170827.txt"/>
+    <hyperlink ref="I31" r:id="rId240" display="2017/08/20170828.txt"/>
+    <hyperlink ref="I32" r:id="rId241" display="2017/08/20170829.txt"/>
+    <hyperlink ref="I33" r:id="rId242" display="2017/08/20170830.txt"/>
+    <hyperlink ref="I34" r:id="rId243" display="2017/08/20170831.txt"/>
+    <hyperlink ref="J4" r:id="rId244" display="2017/09/20170901.txt"/>
+    <hyperlink ref="J5" r:id="rId245" display="2017/09/20170902.txt"/>
+    <hyperlink ref="J6" r:id="rId246" display="2017/09/20170903.txt"/>
+    <hyperlink ref="J7" r:id="rId247" display="2017/09/20170904.txt"/>
+    <hyperlink ref="J8" r:id="rId248" display="2017/09/20170905.txt"/>
+    <hyperlink ref="J9" r:id="rId249" display="2017/09/20170906.txt"/>
+    <hyperlink ref="J10" r:id="rId250" display="2017/09/20170907.txt"/>
+    <hyperlink ref="J11" r:id="rId251" display="2017/09/20170908.txt"/>
+    <hyperlink ref="J12" r:id="rId252" display="2017/09/20170909.txt"/>
+    <hyperlink ref="J13" r:id="rId253" display="2017/09/20170910.txt"/>
+    <hyperlink ref="J14" r:id="rId254" display="2017/09/20170911.txt"/>
+    <hyperlink ref="J15" r:id="rId255" display="2017/09/20170912.txt"/>
+    <hyperlink ref="J16" r:id="rId256" display="2017/09/20170913.txt"/>
+    <hyperlink ref="J17" r:id="rId257" display="2017/09/20170914.txt"/>
+    <hyperlink ref="J18" r:id="rId258" display="2017/09/20170915.txt"/>
+    <hyperlink ref="J19" r:id="rId259" display="2017/09/20170916.txt"/>
+    <hyperlink ref="J20" r:id="rId260" display="2017/09/20170917.txt"/>
+    <hyperlink ref="J21" r:id="rId261" display="2017/09/20170918.txt"/>
+    <hyperlink ref="J22" r:id="rId262" display="2017/09/20170919.txt"/>
+    <hyperlink ref="J23" r:id="rId263" display="2017/09/20170920.txt"/>
+    <hyperlink ref="J24" r:id="rId264" display="2017/09/20170921.txt"/>
+    <hyperlink ref="J25" r:id="rId265" display="2017/09/20170922.txt"/>
+    <hyperlink ref="J26" r:id="rId266" display="2017/09/20170923.txt"/>
+    <hyperlink ref="J27" r:id="rId267" display="2017/09/20170924.txt"/>
+    <hyperlink ref="J28" r:id="rId268" display="2017/09/20170925.txt"/>
+    <hyperlink ref="J29" r:id="rId269" display="2017/09/20170926.txt"/>
+    <hyperlink ref="J30" r:id="rId270" display="2017/09/20170927.txt"/>
+    <hyperlink ref="J31" r:id="rId271" display="2017/09/20170928.txt"/>
+    <hyperlink ref="J32" r:id="rId272" display="2017/09/20170929.txt"/>
+    <hyperlink ref="J33" r:id="rId273" display="2017/09/20170930.txt"/>
+    <hyperlink ref="K4" r:id="rId274" display="2017/10/20171001.txt"/>
+    <hyperlink ref="K5" r:id="rId275" display="2017/10/20171002.txt"/>
+    <hyperlink ref="K6" r:id="rId276" display="2017/10/20171003.txt"/>
+    <hyperlink ref="K7" r:id="rId277" display="2017/10/20171004.txt"/>
+    <hyperlink ref="K8" r:id="rId278" display="2017/10/20171005.txt"/>
+    <hyperlink ref="K9" r:id="rId279" display="2017/10/20171006.txt"/>
+    <hyperlink ref="K10" r:id="rId280" display="2017/10/20171007.txt"/>
+    <hyperlink ref="K11" r:id="rId281" display="2017/10/20171008.txt"/>
+    <hyperlink ref="K12" r:id="rId282" display="2017/10/20171009.txt"/>
+    <hyperlink ref="K13" r:id="rId283" display="2017/10/20171010.txt"/>
+    <hyperlink ref="K14" r:id="rId284" display="2017/10/20171011.txt"/>
+    <hyperlink ref="K15" r:id="rId285" display="2017/10/20171012.txt"/>
+    <hyperlink ref="K16" r:id="rId286" display="2017/10/20171013.txt"/>
+    <hyperlink ref="K17" r:id="rId287" display="2017/10/20171014.txt"/>
+    <hyperlink ref="K18" r:id="rId288" display="2017/10/20171015.txt"/>
+    <hyperlink ref="K19" r:id="rId289" display="2017/10/20171016.txt"/>
+    <hyperlink ref="K20" r:id="rId290" display="2017/10/20171017.txt"/>
+    <hyperlink ref="K21" r:id="rId291" display="2017/10/20171018.txt"/>
+    <hyperlink ref="K22" r:id="rId292" display="2017/10/20171019.txt"/>
+    <hyperlink ref="K23" r:id="rId293" display="2017/10/20171020.txt"/>
+    <hyperlink ref="K24" r:id="rId294" display="2017/10/20171021.txt"/>
+    <hyperlink ref="K25" r:id="rId295" display="2017/10/20171022.txt"/>
+    <hyperlink ref="K26" r:id="rId296" display="2017/10/20171023.txt"/>
+    <hyperlink ref="K27" r:id="rId297" display="2017/10/20171024.txt"/>
+    <hyperlink ref="K28" r:id="rId298" display="2017/10/20171025.txt"/>
+    <hyperlink ref="K29" r:id="rId299" display="2017/10/20171026.txt"/>
+    <hyperlink ref="K30" r:id="rId300" display="2017/10/20171027.txt"/>
+    <hyperlink ref="K31" r:id="rId301" display="2017/10/20171028.txt"/>
+    <hyperlink ref="K32" r:id="rId302" display="2017/10/20171029.txt"/>
+    <hyperlink ref="K33" r:id="rId303" display="2017/10/20171030.txt"/>
+    <hyperlink ref="K34" r:id="rId304" display="2017/10/20171031.txt"/>
+    <hyperlink ref="L4" r:id="rId305" display="2017/11/20171101.txt"/>
+    <hyperlink ref="L5" r:id="rId306" display="2017/11/20171102.txt"/>
+    <hyperlink ref="L6" r:id="rId307" display="2017/11/20171103.txt"/>
+    <hyperlink ref="L7" r:id="rId308" display="2017/11/20171104.txt"/>
+    <hyperlink ref="L8" r:id="rId309" display="2017/11/20171105.txt"/>
+    <hyperlink ref="L9" r:id="rId310" display="2017/11/20171106.txt"/>
+    <hyperlink ref="L10" r:id="rId311" display="2017/11/20171107.txt"/>
+    <hyperlink ref="L11" r:id="rId312" display="2017/11/20171108.txt"/>
+    <hyperlink ref="L12" r:id="rId313" display="2017/11/20171109.txt"/>
+    <hyperlink ref="L13" r:id="rId314" display="2017/11/20171110.txt"/>
+    <hyperlink ref="L14" r:id="rId315" display="2017/11/20171111.txt"/>
+    <hyperlink ref="L15" r:id="rId316" display="2017/11/20171112.txt"/>
+    <hyperlink ref="L16" r:id="rId317" display="2017/11/20171113.txt"/>
+    <hyperlink ref="L17" r:id="rId318" display="2017/11/20171114.txt"/>
+    <hyperlink ref="L18" r:id="rId319" display="2017/11/20171115.txt"/>
+    <hyperlink ref="L19" r:id="rId320" display="2017/11/20171116.txt"/>
+    <hyperlink ref="L20" r:id="rId321" display="2017/11/20171117.txt"/>
+    <hyperlink ref="L21" r:id="rId322" display="2017/11/20171118.txt"/>
+    <hyperlink ref="L22" r:id="rId323" display="2017/11/20171119.txt"/>
+    <hyperlink ref="L23" r:id="rId324" display="2017/11/20171120.txt"/>
+    <hyperlink ref="L24" r:id="rId325" display="2017/11/20171121.txt"/>
+    <hyperlink ref="L25" r:id="rId326" display="2017/11/20171122.txt"/>
+    <hyperlink ref="L26" r:id="rId327" display="2017/11/20171123.txt"/>
+    <hyperlink ref="L27" r:id="rId328" display="2017/11/20171124.txt"/>
+    <hyperlink ref="L28" r:id="rId329" display="2017/11/20171125.txt"/>
+    <hyperlink ref="L29" r:id="rId330" display="2017/11/20171126.txt"/>
+    <hyperlink ref="L30" r:id="rId331" display="2017/11/20171127.txt"/>
+    <hyperlink ref="L31" r:id="rId332" display="2017/11/20171128.txt"/>
+    <hyperlink ref="L32" r:id="rId333" display="2017/11/20171129.txt"/>
+    <hyperlink ref="L33" r:id="rId334" display="2017/11/20171130.txt"/>
+    <hyperlink ref="M4" r:id="rId335" display="2017/12/20171201.txt"/>
+    <hyperlink ref="M5" r:id="rId336" display="2017/12/20171202.txt"/>
+    <hyperlink ref="M6" r:id="rId337" display="2017/12/20171203.txt"/>
+    <hyperlink ref="M7" r:id="rId338" display="2017/12/20171204.txt"/>
+    <hyperlink ref="M8" r:id="rId339" display="2017/12/20171205.txt"/>
+    <hyperlink ref="M9" r:id="rId340" display="2017/12/20171206.txt"/>
+    <hyperlink ref="M10" r:id="rId341" display="2017/12/20171207.txt"/>
+    <hyperlink ref="M11" r:id="rId342" display="2017/12/20171208.txt"/>
+    <hyperlink ref="M12" r:id="rId343" display="2017/12/20171209.txt"/>
+    <hyperlink ref="M13" r:id="rId344" display="2017/12/20171210.txt"/>
+    <hyperlink ref="M14" r:id="rId345" display="2017/12/20171211.txt"/>
+    <hyperlink ref="M15" r:id="rId346" display="2017/12/20171212.txt"/>
+    <hyperlink ref="M16" r:id="rId347" display="2017/12/20171213.txt"/>
+    <hyperlink ref="M17" r:id="rId348" display="2017/12/20171214.txt"/>
+    <hyperlink ref="M18" r:id="rId349" display="2017/12/20171215.txt"/>
+    <hyperlink ref="M19" r:id="rId350" display="2017/12/20171216.txt"/>
+    <hyperlink ref="M20" r:id="rId351" display="2017/12/20171217.txt"/>
+    <hyperlink ref="M21" r:id="rId352" display="2017/12/20171218.txt"/>
+    <hyperlink ref="M22" r:id="rId353" display="2017/12/20171219.txt"/>
+    <hyperlink ref="M23" r:id="rId354" display="2017/12/20171220.txt"/>
+    <hyperlink ref="M24" r:id="rId355" display="2017/12/20171221.txt"/>
+    <hyperlink ref="M25" r:id="rId356" display="2017/12/20171222.txt"/>
+    <hyperlink ref="M26" r:id="rId357" display="2017/12/20171223.txt"/>
+    <hyperlink ref="M27" r:id="rId358" display="2017/12/20171224.txt"/>
+    <hyperlink ref="M28" r:id="rId359" display="2017/12/20171225.txt"/>
+    <hyperlink ref="M29" r:id="rId360" display="2017/12/20171226.txt"/>
+    <hyperlink ref="M30" r:id="rId361" display="2017/12/20171227.txt"/>
+    <hyperlink ref="M31" r:id="rId362" display="2017/12/20171228.txt"/>
+    <hyperlink ref="M32" r:id="rId363" display="2017/12/20171229.txt"/>
+    <hyperlink ref="M33" r:id="rId364" display="2017/12/20171230.txt"/>
+    <hyperlink ref="M34" r:id="rId365" display="2017/12/20171231.txt"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="58" orientation="landscape" r:id="rId366"/>
+  <tableParts count="1">
+    <tablePart r:id="rId367"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N38"/>
+  <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B11" sqref="B11"/>
@@ -3969,21 +7273,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
       <c r="N1" s="3"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
